--- a/docs/rules/data/magic/亡灵法术.xlsx
+++ b/docs/rules/data/magic/亡灵法术.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xp-wiki\docs\rules\data\magic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C88A1A3-0EB6-4A9F-AC57-09B7A25DE1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F110DD8-449C-47D1-AA52-B951C397713E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="0" shapeId="0" xr:uid="{BC819CC8-F5C6-49C6-821A-A4B4D313D92A}">
+    <comment ref="M8" authorId="0" shapeId="0" xr:uid="{BC819CC8-F5C6-49C6-821A-A4B4D313D92A}">
       <text>
         <r>
           <rPr>
@@ -94,16 +94,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>闪避</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>原始</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,14 +152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>优势检定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>劣势检定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>检定阈值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,14 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>防御、抵抗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避、魔法抗性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>敌方对自己进行远程攻击时获得一枚惩罚骰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,10 +196,6 @@
   </si>
   <si>
     <t>游魂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -596,6 +572,33 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -618,9 +621,51 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -628,75 +673,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -989,68 +965,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4180AC-A42F-4B7D-87A9-A9F0BD1E9AA7}">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:H9"/>
+      <selection activeCell="C11" sqref="C11:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="16" max="16" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:16" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="F1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="5"/>
+    </row>
+    <row r="2" spans="1:16" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:16" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="F1" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="22"/>
-    </row>
-    <row r="2" spans="1:20" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="25"/>
-    </row>
-    <row r="3" spans="1:20" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="31">
         <v>10</v>
       </c>
@@ -1059,326 +1027,279 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="17" t="s">
+      <c r="M3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="19"/>
-    </row>
-    <row r="4" spans="1:20" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="30"/>
+    </row>
+    <row r="4" spans="1:16" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
+      <c r="F4" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="G4" s="33">
         <v>0</v>
       </c>
-      <c r="H4" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="H4" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="12">
         <f>IF(H4="原始",100,IF(H4="初级",150,IF(H4="中级",200,IF(H4="上级",300,0))))</f>
         <v>100</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="12">
         <f>IF(H4="原始",15,IF(H4="初级",25,IF(H4="中级",35,IF(H4="上级",45,0))))</f>
         <v>15</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="12">
         <f>IF(H4="原始",20,IF(H4="初级",28,IF(H4="中级",36,IF(H4="上级",44,0))))</f>
         <v>20</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="3" t="e">
+      <c r="L4" s="12" t="e">
         <f ca="1">IF((G4+C11+C13)&lt;=50,(G4+C11+C13),IF((G4+C11+C13)&lt;=80,((G4+C11+C13)-50)*0.7+50,((G4+C11+C13)-80)*0.4+71))+IF(H4="原始",0,IF(H4="初级",8,IF(H4="中级",16,IF(H4="上级",24,0))))</f>
         <v>#REF!</v>
       </c>
-      <c r="Q4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="27"/>
-    </row>
-    <row r="5" spans="1:20" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="16" t="e">
+      <c r="M4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="20"/>
+    </row>
+    <row r="5" spans="1:16" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="11" t="e">
         <f ca="1">(INDIRECT("总表"&amp;"!$K$9")+INDIRECT("总表"&amp;"!$K$13"))*C3</f>
         <v>#REF!</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="F5" s="4"/>
+      <c r="D5" s="11"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="34"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="30"/>
-    </row>
-    <row r="6" spans="1:20" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="F6" s="3" t="s">
-        <v>11</v>
+      <c r="H5" s="27"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="23"/>
+    </row>
+    <row r="6" spans="1:16" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="F6" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="G6" s="33">
         <v>0</v>
       </c>
-      <c r="H6" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="H6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="12">
         <f>IF(H6="原始",200,IF(H6="初级",300,IF(H6="中级",400,IF(H6="上级",500,0))))</f>
         <v>200</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="12">
         <f>IF(H6="原始",25,IF(H6="初级",37,IF(H6="中级",49,IF(H6="上级",61,0))))</f>
         <v>25</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="12">
         <f>IF(H6="原始",25,IF(H6="初级",33,IF(H6="中级",41,IF(H6="上级",49,0))))</f>
         <v>25</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="3" t="e">
+      <c r="L6" s="12" t="e">
         <f ca="1">IF((G6+C11+C13)&lt;=50,(G6+C11+C13),IF((G6+C11+C13)&lt;=80,((G6+C11+C13)-50)*0.7+50,((G6+C11+C13)-80)*0.4+71))+IF(H6="原始",0,IF(H6="初级",8,IF(H6="中级",16,IF(H6="上级",24,0))))</f>
         <v>#REF!</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="M6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="15"/>
+    </row>
+    <row r="7" spans="1:16" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="6"/>
-    </row>
-    <row r="7" spans="1:20" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="32">
         <v>0</v>
       </c>
       <c r="D7" s="32"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="34"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="8"/>
-    </row>
-    <row r="8" spans="1:20" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="17"/>
+    </row>
+    <row r="8" spans="1:16" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
-      <c r="F8" s="3" t="s">
-        <v>30</v>
+      <c r="F8" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="G8" s="33">
         <v>0</v>
       </c>
-      <c r="H8" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="H8" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="12">
         <f>IF(H8="原始",100,IF(H8="初级",300,IF(H8="中级",500,IF(H8="上级",700,0))))</f>
         <v>100</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="6"/>
-    </row>
-    <row r="9" spans="1:20" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="16" t="e">
+      <c r="J8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="15"/>
+    </row>
+    <row r="9" spans="1:16" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="11" t="e">
         <f ca="1">C5-C7</f>
         <v>#REF!</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="F9" s="4"/>
+      <c r="D9" s="11"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="34"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="8"/>
-    </row>
-    <row r="10" spans="1:20" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="11" spans="1:20" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="14"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="17"/>
+    </row>
+    <row r="10" spans="1:16" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:16" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="9"/>
       <c r="C11" s="31">
         <v>20</v>
       </c>
       <c r="D11" s="31"/>
     </row>
-    <row r="12" spans="1:20" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
+    <row r="12" spans="1:16" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
     </row>
-    <row r="13" spans="1:20" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="16" t="e">
+    <row r="13" spans="1:16" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="11" t="e">
         <f ca="1">INDIRECT("经历点数与履历"&amp;"!$E$3")</f>
         <v>#REF!</v>
       </c>
-      <c r="D13" s="16"/>
-    </row>
-    <row r="14" spans="1:20" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-    </row>
-    <row r="15" spans="1:20" ht="20.399999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:16" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:16" ht="20.399999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="F1:T2"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="N4:O5"/>
-    <mergeCell ref="N6:O7"/>
-    <mergeCell ref="Q4:T5"/>
-    <mergeCell ref="Q6:T7"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="Q3:T3"/>
+  <mergeCells count="39">
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:P9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="M3:P3"/>
     <mergeCell ref="A11:B12"/>
     <mergeCell ref="C11:D12"/>
     <mergeCell ref="A7:B8"/>
@@ -1389,26 +1310,21 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
     <mergeCell ref="A9:B10"/>
     <mergeCell ref="C9:D10"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:M9"/>
-    <mergeCell ref="N8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:T9"/>
+    <mergeCell ref="F1:P2"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="M4:P5"/>
+    <mergeCell ref="M6:P7"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
